--- a/meta/en/2-1-1.xlsx
+++ b/meta/en/2-1-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>2.1.1: Prevalence of undernourishment</t>
   </si>
   <si>
-    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Household Statistics Division)</t>
-  </si>
-  <si>
-    <t>Kerimalieva N.K.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>The prevalence of undernourishment (PoU) is an estimate of the proportion of the population whose habitual food consumption is insufficient to provide the dietary energy levels that are required to maintain a normal active and healthy life. It is expressed as a percentage.</t>
   </si>
   <si>
@@ -164,17 +149,40 @@
 http://www.fao.org/3/a-i4046e.pdf
 KR National SDG Reporting Platform: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Kalymbetova Yryskan</t>
+  </si>
+  <si>
+    <t>yryskan.kalymbetova@gmail.com</t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Statistical Committee of the Kyrgyz Republic (Department of Household Statistics)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -241,25 +249,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -572,7 +588,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,8 +638,8 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -631,7 +647,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -639,15 +655,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -655,7 +671,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -685,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -699,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -707,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -721,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="138" customHeight="1" x14ac:dyDescent="0.25">
@@ -729,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -737,7 +753,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -751,7 +767,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,7 +775,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="140.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +783,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="243.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,7 +791,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
